--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_middelhoog.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_middelhoog.xlsx
@@ -7695,7 +7695,7 @@
         <v>0.7065810950125746</v>
       </c>
       <c r="G282">
-        <v>0.7939096311040713</v>
+        <v>0.7939096311040714</v>
       </c>
       <c r="H282">
         <v>0.7869788319900662</v>
@@ -10532,7 +10532,7 @@
         <v>0.6111380412991776</v>
       </c>
       <c r="H391">
-        <v>0.6030650823670005</v>
+        <v>0.6030650823670006</v>
       </c>
     </row>
     <row r="392" spans="1:8">
